--- a/Java.xlsx
+++ b/Java.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Topic</t>
   </si>
@@ -28,16 +28,282 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> static keyword</t>
+  </si>
+  <si>
+    <t>memory Mmgmt and no object need</t>
+  </si>
+  <si>
+    <t>static var,method,block and nested class can be accessed without objects .</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t>Scope of a field,method,constructor or class</t>
+  </si>
+  <si>
+    <t>It specifies the accessabilty of particular var,method,constructor or class</t>
+  </si>
+  <si>
+    <t>Public Access Modifier</t>
+  </si>
+  <si>
+    <t>Scope is everywhere</t>
+  </si>
+  <si>
+    <t>Private Access Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope is within the class </t>
+  </si>
+  <si>
+    <t>Can  be access from anywhere</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>It can be accessed only within the class and not outside the class</t>
+  </si>
+  <si>
+    <t>Default Access Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope within the package </t>
+  </si>
+  <si>
+    <t>It cannot be accessed outside the package.</t>
+  </si>
+  <si>
+    <t>Protected Access Modifier</t>
+  </si>
+  <si>
+    <t>If u do not make child class it cannot be accessed from outisde the package(inheritance).</t>
+  </si>
+  <si>
+    <t>local variable</t>
+  </si>
+  <si>
+    <t>Instance variable</t>
+  </si>
+  <si>
+    <t>Scope Within the package and inheritance</t>
+  </si>
+  <si>
+    <t>It can be accessed or modified inside the class or method in which it is declared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable belongs to the Class and it is static </t>
+  </si>
+  <si>
+    <t>It can be accessed or modified using the Class name , no object is required and only one variable for one class</t>
+  </si>
+  <si>
+    <t>Class variable/static viables</t>
+  </si>
+  <si>
+    <t>Variable belongs to the method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-static , belongs to the object </t>
+  </si>
+  <si>
+    <t>It is defined outside the method and constructor and can be used after object creation</t>
+  </si>
+  <si>
+    <t>Thread Safety,Synochronized</t>
+  </si>
+  <si>
+    <t>Its is synchronized and used for muti-threaded uses.</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>Dynamic Array,Not synchronized</t>
+  </si>
+  <si>
+    <t>Its is  not synchronized and items can be added dynamically .</t>
+  </si>
+  <si>
+    <t>Static import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static variable import at import section </t>
+  </si>
+  <si>
+    <t>We can import the static variable at the top and can use it without calling the class name.</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Encapsulation and Blueprint</t>
+  </si>
+  <si>
+    <t>Its is a blueprint from which objects are created.</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>wrapping methods and variable into a single entity through which objects can be created .</t>
+  </si>
+  <si>
+    <t>Class uses encapsulation</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>instance of a class</t>
+  </si>
+  <si>
+    <t>Objects has state(variable), behaviour(methods),identity(hashCode)</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Pojo Class</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstract Class</t>
+  </si>
+  <si>
+    <t>initializes objects</t>
+  </si>
+  <si>
+    <t>It is special type of method used to initialize objects while calling new keyword.</t>
+  </si>
+  <si>
+    <t>Showing only the functionality</t>
+  </si>
+  <si>
+    <t>Hiding the implementation details and showing only the funtion.</t>
+  </si>
+  <si>
+    <t>Acquires props from one class to another class, code reusabilty</t>
+  </si>
+  <si>
+    <t>Getting propereties from parent class to child class using extends keyword and code reusability</t>
+  </si>
+  <si>
+    <t>Plain old java object</t>
+  </si>
+  <si>
+    <t>It increases the readability and reusability of a java program and it contains getters and setters</t>
+  </si>
+  <si>
+    <t>overloading</t>
+  </si>
+  <si>
+    <t>overriding</t>
+  </si>
+  <si>
+    <t>this keyword</t>
+  </si>
+  <si>
+    <t>super keyword</t>
+  </si>
+  <si>
+    <t>static block</t>
+  </si>
+  <si>
+    <t>can extend class and impl interface</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/difference-between-abstract-class-and-interface</t>
+  </si>
+  <si>
+    <t>multiple inheritance,cannot be instantiated(ask sir)</t>
+  </si>
+  <si>
+    <t>same name and different number of parameters</t>
+  </si>
+  <si>
+    <t>Same name but has different number of parameters,used for readabilty and maintainabilty of the code.</t>
+  </si>
+  <si>
+    <t>Same name and same parameter but diff class</t>
+  </si>
+  <si>
+    <t>used with inheritance for using the parent method in child class.</t>
+  </si>
+  <si>
+    <t>reference variable for current object</t>
+  </si>
+  <si>
+    <t>IS-A Releationship</t>
+  </si>
+  <si>
+    <t>AS-A Relations</t>
+  </si>
+  <si>
+    <t>this keyword gives us the current object's method and variables.</t>
+  </si>
+  <si>
+    <t>reference variable for immediate parent class</t>
+  </si>
+  <si>
+    <t>user to refer immediate parent class instance variable , parent class method, parent constructor.</t>
+  </si>
+  <si>
+    <t>used to initializew static members</t>
+  </si>
+  <si>
+    <t>it is executed before the main method at the time of class loading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inheritance </t>
+  </si>
+  <si>
+    <t>Relationship between two or more classes using inheritance .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
+    <t>One classes uses another class as a reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> toString() method</t>
+  </si>
+  <si>
+    <t>to represent an object as a string</t>
+  </si>
+  <si>
+    <t>To string method returns the String representation of an object</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,16 +332,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,17 +644,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,7 +672,330 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
